--- a/KBC.xlsx
+++ b/KBC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashmi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C70BF6-04D2-CB40-B7AB-E383F1AFC1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E78C0AA-7600-3345-9225-2C645FD18A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-7 no. question" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="876">
   <si>
     <t>Question</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Main Health hazards of Nitrogen gas is ________.</t>
   </si>
   <si>
-    <t>Out of this four gas , Which is the permeant gas  ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">What is the safe working criteria for better ventilation in confined space w.r.t air replacement ? </t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>What is maximum permissible loading capacity of mobile crane if Safe Load Indicator is working ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For lifting  &gt;30 MT by carne , approval is required from ______ .</t>
   </si>
   <si>
     <t xml:space="preserve">The warning barrication should be ________________away  from edge of the excavation </t>
@@ -2785,9 +2779,6 @@
     <t>All of Above</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Job Planning is crucial activity for OMS Sub Element</t>
   </si>
   <si>
@@ -2825,6 +2816,21 @@
   </si>
   <si>
     <t xml:space="preserve">Multiple  Fatalities </t>
+  </si>
+  <si>
+    <t>Changes made in Confined Space Entry Procedure Post VCM IHC are related to</t>
+  </si>
+  <si>
+    <t>Before starting the job</t>
+  </si>
+  <si>
+    <t>Out of this four gas , Which is the permenant gas  ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For lifting  &gt;30 MT by crane , approval is required from ______ .</t>
+  </si>
+  <si>
+    <t>Examination of Lift</t>
   </si>
   <si>
     <t>Correct Option</t>
@@ -2837,7 +2843,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2913,8 +2919,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2931,6 +2944,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2995,7 +3014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3149,6 +3168,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3433,9 +3458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3452,28 +3477,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>872</v>
+      <c r="H1" s="54" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -3499,7 +3524,7 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="68" x14ac:dyDescent="0.2">
@@ -3507,25 +3532,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>746</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>748</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>749</v>
-      </c>
       <c r="G3" s="25" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -3540,7 +3565,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>5</v>
@@ -3552,7 +3577,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3561,25 +3586,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>753</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>751</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>754</v>
-      </c>
       <c r="G5" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -3588,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>7</v>
@@ -3600,13 +3625,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -3615,25 +3640,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>759</v>
-      </c>
       <c r="G7" s="30" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I7" s="21"/>
     </row>
@@ -3645,22 +3670,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I8" s="18"/>
     </row>
@@ -3669,25 +3694,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="F9" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="G9" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I9" s="18"/>
     </row>
@@ -3699,22 +3724,22 @@
         <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>115</v>
-      </c>
       <c r="G10" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I10" s="18"/>
     </row>
@@ -3726,22 +3751,22 @@
         <v>12</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="G11" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>120</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I11" s="18"/>
     </row>
@@ -3753,22 +3778,22 @@
         <v>13</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -3780,22 +3805,22 @@
         <v>14</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>126</v>
-      </c>
       <c r="G13" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I13" s="18"/>
     </row>
@@ -3804,25 +3829,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>130</v>
-      </c>
       <c r="G14" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I14" s="18"/>
     </row>
@@ -3831,25 +3856,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="G15" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>135</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I15" s="18"/>
     </row>
@@ -3858,7 +3883,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="25">
         <v>4</v>
@@ -3876,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I16" s="18"/>
     </row>
@@ -3885,25 +3910,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>138</v>
-      </c>
       <c r="G17" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I17" s="18"/>
     </row>
@@ -3912,10 +3937,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="31">
         <v>0.7</v>
@@ -3927,10 +3952,10 @@
         <v>0.85</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I18" s="18"/>
     </row>
@@ -3939,10 +3964,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="31">
         <v>0.7</v>
@@ -3957,7 +3982,7 @@
         <v>0.85</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I19" s="18"/>
     </row>
@@ -3966,25 +3991,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="G20" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>144</v>
-      </c>
       <c r="H20" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I20" s="18"/>
     </row>
@@ -3993,25 +4018,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I21" s="18"/>
     </row>
@@ -4020,25 +4045,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="G22" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I22" s="18"/>
     </row>
@@ -4047,25 +4072,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>654</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>655</v>
-      </c>
       <c r="F23" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I23" s="18"/>
     </row>
@@ -4074,10 +4099,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D24" s="23">
         <v>1150</v>
@@ -4089,10 +4114,10 @@
         <v>950</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I24" s="18"/>
     </row>
@@ -4101,25 +4126,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>154</v>
-      </c>
       <c r="G25" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I25" s="18"/>
     </row>
@@ -4128,25 +4153,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F26" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>762</v>
-      </c>
       <c r="H26" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -4156,25 +4181,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>771</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>772</v>
-      </c>
       <c r="G27" s="26" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I27" s="18"/>
     </row>
@@ -4183,25 +4208,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E28" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>329</v>
-      </c>
       <c r="H28" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I28" s="18"/>
     </row>
@@ -4210,25 +4235,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I29" s="18"/>
     </row>
@@ -4237,25 +4262,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D30" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="G30" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>335</v>
-      </c>
       <c r="H30" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I30" s="18"/>
     </row>
@@ -4264,25 +4289,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E31" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>338</v>
-      </c>
       <c r="G31" s="23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I31" s="18"/>
     </row>
@@ -4291,25 +4316,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>851</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="E32" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="F32" s="23" t="s">
         <v>854</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>856</v>
-      </c>
       <c r="G32" s="25" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I32" s="18"/>
     </row>
@@ -4318,25 +4343,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E33" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>343</v>
-      </c>
       <c r="G33" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I33" s="18"/>
     </row>
@@ -4345,25 +4370,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I34" s="18"/>
     </row>
@@ -4372,25 +4397,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D35" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>350</v>
-      </c>
       <c r="G35" s="23" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I35" s="18"/>
     </row>
@@ -4399,25 +4424,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D36" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>354</v>
-      </c>
       <c r="G36" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I36" s="18"/>
     </row>
@@ -4426,25 +4451,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="F37" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>552</v>
-      </c>
       <c r="G37" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I37" s="18"/>
     </row>
@@ -4453,25 +4478,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D38" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="G38" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>358</v>
-      </c>
       <c r="H38" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I38" s="18"/>
     </row>
@@ -4480,25 +4505,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I39" s="18"/>
     </row>
@@ -4507,25 +4532,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D40" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="G40" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>363</v>
-      </c>
       <c r="H40" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I40" s="18"/>
     </row>
@@ -4534,25 +4559,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I41" s="18"/>
     </row>
@@ -4561,25 +4586,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D42" s="29" t="s">
+        <v>870</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>369</v>
-      </c>
       <c r="G42" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I42" s="18"/>
     </row>
@@ -4588,25 +4613,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="G43" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I43" s="18"/>
     </row>
@@ -4615,25 +4640,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D44" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>373</v>
-      </c>
       <c r="F44" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I44" s="18"/>
     </row>
@@ -4642,25 +4667,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D45" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="E45" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>377</v>
-      </c>
       <c r="G45" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I45" s="18"/>
     </row>
@@ -4669,25 +4694,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I46" s="18"/>
     </row>
@@ -4696,25 +4721,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D47" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E47" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>384</v>
-      </c>
       <c r="F47" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I47" s="18"/>
     </row>
@@ -4723,25 +4748,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D48" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="G48" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>388</v>
-      </c>
       <c r="H48" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I48" s="18"/>
     </row>
@@ -4750,25 +4775,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I49" s="18"/>
     </row>
@@ -4777,25 +4802,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="F50" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="G50" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>393</v>
-      </c>
       <c r="H50" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I50" s="18"/>
     </row>
@@ -4804,25 +4829,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D51" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>396</v>
-      </c>
       <c r="G51" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I51" s="18"/>
     </row>
@@ -4831,25 +4856,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>776</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>778</v>
-      </c>
       <c r="D52" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>777</v>
       </c>
-      <c r="E52" s="26" t="s">
-        <v>775</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>779</v>
-      </c>
       <c r="G52" s="23" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I52" s="18"/>
     </row>
@@ -4858,25 +4883,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D53" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E53" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>400</v>
-      </c>
       <c r="G53" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I53" s="18"/>
     </row>
@@ -4885,25 +4910,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D54" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="F54" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>400</v>
-      </c>
       <c r="G54" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I54" s="18"/>
     </row>
@@ -4912,25 +4937,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D55" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>400</v>
-      </c>
       <c r="G55" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I55" s="18"/>
     </row>
@@ -4939,25 +4964,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D56" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="F56" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E56" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>400</v>
-      </c>
       <c r="G56" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I56" s="18"/>
     </row>
@@ -4966,25 +4991,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="E57" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>400</v>
-      </c>
       <c r="G57" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I57" s="18"/>
     </row>
@@ -4993,25 +5018,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>780</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>782</v>
-      </c>
       <c r="G58" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I58" s="18"/>
     </row>
@@ -5020,25 +5045,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>782</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="F59" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="D59" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>786</v>
-      </c>
       <c r="G59" s="29" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I59" s="18"/>
     </row>
@@ -5047,25 +5072,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="D60" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="E60" s="25" t="s">
         <v>639</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>641</v>
-      </c>
       <c r="F60" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I60" s="18"/>
     </row>
@@ -5074,7 +5099,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C61" s="25">
         <v>6</v>
@@ -5092,7 +5117,7 @@
         <v>8</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I61" s="18"/>
     </row>
@@ -5101,25 +5126,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="E62" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>599</v>
-      </c>
-      <c r="D62" s="25" t="s">
+      <c r="F62" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="G62" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="F62" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>599</v>
-      </c>
       <c r="H62" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I62" s="18"/>
     </row>
@@ -5128,25 +5153,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>787</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="D63" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="F63" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>791</v>
-      </c>
       <c r="G63" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I63" s="18"/>
     </row>
@@ -5155,25 +5180,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="C64" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="F64" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>794</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>795</v>
-      </c>
       <c r="G64" s="23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I64" s="18"/>
     </row>
@@ -5182,25 +5207,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C65" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>798</v>
-      </c>
       <c r="F65" s="23" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I65" s="18"/>
     </row>
@@ -5209,25 +5234,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D66" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="F66" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="E66" s="23" t="s">
-        <v>800</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>801</v>
-      </c>
       <c r="G66" s="23" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I66" s="18"/>
     </row>
@@ -5236,25 +5261,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I67" s="18"/>
     </row>
@@ -5263,25 +5288,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D68" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>164</v>
-      </c>
       <c r="G68" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I68" s="18"/>
     </row>
@@ -5290,25 +5315,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I69" s="18"/>
     </row>
@@ -5317,25 +5342,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D70" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>188</v>
-      </c>
       <c r="G70" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I70" s="18"/>
     </row>
@@ -5344,25 +5369,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I71" s="18"/>
     </row>
@@ -5371,25 +5396,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D72" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>196</v>
-      </c>
       <c r="G72" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I72" s="18"/>
     </row>
@@ -5398,25 +5423,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D73" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>200</v>
-      </c>
       <c r="F73" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I73" s="18"/>
     </row>
@@ -5425,25 +5450,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I74" s="18"/>
     </row>
@@ -5452,25 +5477,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D75" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="G75" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="H75" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I75" s="18"/>
     </row>
@@ -5479,25 +5504,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I76" s="18"/>
     </row>
@@ -5506,25 +5531,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E77" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F77" s="23" t="s">
-        <v>215</v>
-      </c>
       <c r="G77" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I77" s="18"/>
     </row>
@@ -5533,25 +5558,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="G78" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F78" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="H78" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I78" s="18"/>
     </row>
@@ -5560,25 +5585,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E79" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F79" s="23" t="s">
-        <v>215</v>
-      </c>
       <c r="G79" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I79" s="18"/>
     </row>
@@ -5587,25 +5612,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I80" s="18"/>
     </row>
@@ -5614,25 +5639,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I81" s="18"/>
     </row>
@@ -5641,25 +5666,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I82" s="18"/>
     </row>
@@ -5668,16 +5693,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F83" s="26" t="s">
         <v>2</v>
@@ -5686,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I83" s="18"/>
     </row>
@@ -5695,25 +5720,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F84" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I84" s="18"/>
     </row>
@@ -5722,25 +5747,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I85" s="18"/>
     </row>
@@ -5749,25 +5774,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I86" s="18"/>
     </row>
@@ -5776,25 +5801,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E87" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="G87" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I87" s="18"/>
     </row>
@@ -5803,25 +5828,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D88" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="9" t="s">
-        <v>287</v>
-      </c>
       <c r="F88" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I88" s="18"/>
     </row>
@@ -5830,25 +5855,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I89" s="18"/>
     </row>
@@ -5857,25 +5882,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I90" s="18"/>
     </row>
@@ -5884,25 +5909,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I91" s="18"/>
     </row>
@@ -5911,25 +5936,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D92" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>310</v>
-      </c>
       <c r="G92" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I92" s="18"/>
     </row>
@@ -5938,25 +5963,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I93" s="18"/>
     </row>
@@ -5965,25 +5990,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D94" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F94" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="E94" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>317</v>
-      </c>
       <c r="G94" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I94" s="18"/>
     </row>
@@ -5992,25 +6017,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I95" s="18"/>
     </row>
@@ -6019,25 +6044,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D96" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="F96" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E96" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>325</v>
-      </c>
       <c r="G96" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I96" s="18"/>
     </row>
@@ -6046,25 +6071,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I97" s="21"/>
     </row>
@@ -6073,10 +6098,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D98" s="23">
         <v>141</v>
@@ -6088,10 +6113,10 @@
         <v>67</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I98" s="18"/>
     </row>
@@ -6100,25 +6125,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E99" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>272</v>
-      </c>
       <c r="G99" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I99" s="18"/>
     </row>
@@ -6127,25 +6152,25 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I100" s="18"/>
     </row>
@@ -6154,25 +6179,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D101" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>279</v>
-      </c>
       <c r="G101" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I101" s="18"/>
     </row>
@@ -6181,25 +6206,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E102" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="F102" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F102" s="23" t="s">
-        <v>283</v>
-      </c>
       <c r="G102" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I102" s="18"/>
     </row>
@@ -6208,25 +6233,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D103" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="E103" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>294</v>
-      </c>
       <c r="G103" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I103" s="18"/>
     </row>
@@ -6235,25 +6260,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D104" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F104" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="G104" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="F104" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="H104" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I104" s="18"/>
     </row>
@@ -6262,25 +6287,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D105" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F105" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E105" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>265</v>
-      </c>
       <c r="G105" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I105" s="18"/>
     </row>
@@ -6289,25 +6314,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I106" s="18"/>
     </row>
@@ -6316,25 +6341,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F107" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G107" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="H107" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I107" s="18"/>
     </row>
@@ -6343,25 +6368,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D108" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F108" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="G108" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F108" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>256</v>
-      </c>
       <c r="H108" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I108" s="18"/>
     </row>
@@ -6370,25 +6395,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D109" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F109" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E109" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>250</v>
-      </c>
       <c r="G109" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I109" s="18"/>
     </row>
@@ -6397,25 +6422,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D110" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="G110" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="H110" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I110" s="18"/>
     </row>
@@ -6424,25 +6449,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D111" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F111" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F111" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="G111" s="23" t="s">
-        <v>243</v>
-      </c>
       <c r="H111" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I111" s="18"/>
     </row>
@@ -6451,25 +6476,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D112" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F112" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E112" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>238</v>
-      </c>
       <c r="G112" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I112" s="18"/>
     </row>
@@ -6478,25 +6503,25 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D113" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F113" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="G113" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F113" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>235</v>
-      </c>
       <c r="H113" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I113" s="18"/>
     </row>
@@ -6505,25 +6530,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I114" s="18"/>
     </row>
@@ -6532,25 +6557,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="E115" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="F115" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="E115" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>471</v>
-      </c>
       <c r="G115" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I115" s="18"/>
     </row>
@@ -6559,25 +6584,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="E116" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="F116" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E116" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>482</v>
-      </c>
       <c r="G116" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I116" s="18"/>
     </row>
@@ -6586,25 +6611,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C117" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D117" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>501</v>
-      </c>
       <c r="F117" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I117" s="18"/>
     </row>
@@ -6613,25 +6638,25 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D118" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="E118" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="D118" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>505</v>
-      </c>
       <c r="F118" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I118" s="18"/>
     </row>
@@ -6640,25 +6665,25 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C119" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F119" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D119" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>508</v>
-      </c>
       <c r="G119" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I119" s="18"/>
     </row>
@@ -6667,25 +6692,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E120" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="E120" s="20" t="s">
-        <v>520</v>
-      </c>
       <c r="F120" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I120" s="18"/>
     </row>
@@ -6694,25 +6719,25 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="D121" s="20" t="s">
+      <c r="F121" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="G121" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I121" s="18"/>
     </row>
@@ -6721,25 +6746,25 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I122" s="18"/>
     </row>
@@ -6748,52 +6773,52 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C123" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="I123" s="18"/>
+    </row>
+    <row r="124" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="9">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D123" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F123" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="I123" s="18"/>
-    </row>
-    <row r="124" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A124" s="23">
-        <v>123</v>
-      </c>
-      <c r="B124" s="2" t="s">
+      <c r="E124" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="F124" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="F124" s="20" t="s">
-        <v>547</v>
-      </c>
       <c r="G124" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I124" s="18"/>
     </row>
@@ -6802,25 +6827,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C125" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="D125" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="E125" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="H125" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I125" s="18"/>
     </row>
@@ -6829,25 +6854,25 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C126" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>560</v>
-      </c>
       <c r="F126" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I126" s="18"/>
     </row>
@@ -6856,25 +6881,25 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I127" s="18"/>
     </row>
@@ -6883,25 +6908,25 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D128" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G128" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>577</v>
-      </c>
       <c r="H128" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I128" s="18"/>
     </row>
@@ -6910,25 +6935,25 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I129" s="18"/>
     </row>
@@ -6937,25 +6962,25 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I130" s="18"/>
     </row>
@@ -6964,25 +6989,25 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I131" s="18"/>
     </row>
@@ -6991,25 +7016,25 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D132" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="F132" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="E132" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>585</v>
-      </c>
       <c r="G132" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I132" s="18"/>
     </row>
@@ -7018,25 +7043,25 @@
         <v>132</v>
       </c>
       <c r="B133" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D133" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="E133" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="D133" s="37" t="s">
+      <c r="F133" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="E133" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>593</v>
-      </c>
       <c r="G133" s="26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I133" s="18"/>
     </row>
@@ -7045,79 +7070,79 @@
         <v>133</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D134" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="F134" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>445</v>
-      </c>
       <c r="G134" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I134" s="18"/>
     </row>
     <row r="135" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A135" s="23">
+      <c r="A135" s="9">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>15</v>
+        <v>871</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E135" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G135" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="F135" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="H135" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I135" s="18"/>
     </row>
     <row r="136" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="23">
+      <c r="A136" s="9">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>23</v>
+        <v>872</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D136" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E136" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>419</v>
-      </c>
       <c r="G136" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I136" s="18"/>
     </row>
@@ -7126,25 +7151,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="D137" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="E137" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="D137" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="E137" s="23" t="s">
-        <v>632</v>
-      </c>
       <c r="F137" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I137" s="18"/>
     </row>
@@ -7153,25 +7178,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="D138" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="E138" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="F138" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="E138" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="F138" s="23" t="s">
-        <v>493</v>
-      </c>
       <c r="G138" s="23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I138" s="18"/>
     </row>
@@ -7180,25 +7205,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I139" s="18"/>
     </row>
@@ -7207,25 +7232,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D140" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F140" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="E140" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="F140" s="20" t="s">
-        <v>441</v>
-      </c>
       <c r="G140" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I140" s="18"/>
     </row>
@@ -7234,25 +7259,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="E141" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="F141" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="G141" s="9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I141" s="18"/>
     </row>
@@ -7261,25 +7286,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="E142" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="F142" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="E142" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>676</v>
-      </c>
       <c r="G142" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I142" s="18"/>
     </row>
@@ -7288,25 +7313,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="C143" s="41" t="s">
+        <v>810</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="E143" s="41" t="s">
+        <v>808</v>
+      </c>
+      <c r="F143" s="41" t="s">
         <v>807</v>
       </c>
-      <c r="C143" s="41" t="s">
-        <v>812</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="E143" s="41" t="s">
-        <v>810</v>
-      </c>
-      <c r="F143" s="41" t="s">
-        <v>809</v>
-      </c>
       <c r="G143" s="42" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I143" s="18"/>
     </row>
@@ -7315,25 +7340,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="E144" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="G144" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
@@ -7343,25 +7368,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C145" s="46" t="s">
         <v>832</v>
       </c>
-      <c r="C145" s="46" t="s">
+      <c r="D145" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="D145" s="47" t="s">
-        <v>833</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>836</v>
-      </c>
       <c r="G145" s="8" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I145" s="18"/>
     </row>
@@ -7375,8 +7400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322DC304-2BC3-4A97-AEA5-350A59DAE375}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -7389,35 +7414,35 @@
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>606</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>872</v>
+      <c r="H1" s="55" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7425,25 +7450,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>680</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -7453,25 +7478,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>411</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -7481,25 +7506,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -7509,25 +7534,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>685</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -7537,25 +7562,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>423</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -7565,25 +7590,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>427</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -7593,25 +7618,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="G8" s="20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -7621,25 +7646,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>432</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -7649,25 +7674,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="17"/>
@@ -7677,25 +7702,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="E11" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>689</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -7705,25 +7730,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -7733,25 +7758,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="F13" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>635</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>636</v>
-      </c>
       <c r="G13" s="23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -7761,25 +7786,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>693</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>694</v>
-      </c>
       <c r="G14" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -7789,25 +7814,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>816</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>818</v>
-      </c>
       <c r="D15" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>819</v>
-      </c>
       <c r="G15" s="37" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -7817,25 +7842,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="G16" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="H16" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -7845,25 +7870,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>404</v>
-      </c>
       <c r="G17" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -7873,25 +7898,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="G18" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>450</v>
-      </c>
       <c r="H18" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -7901,25 +7926,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="F19" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>703</v>
-      </c>
       <c r="G19" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -7929,25 +7954,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="F20" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>647</v>
-      </c>
       <c r="G20" s="23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -7957,25 +7982,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -7985,25 +8010,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="E22" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="F22" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>666</v>
-      </c>
       <c r="G22" s="23" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -8013,25 +8038,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="E23" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>462</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -8041,25 +8066,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="F24" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>466</v>
-      </c>
       <c r="G24" s="23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -8069,7 +8094,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C25" s="26">
         <v>6000</v>
@@ -8078,16 +8103,16 @@
         <v>3000</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G25" s="37">
         <v>6000</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -8097,25 +8122,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D26" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>462</v>
-      </c>
       <c r="F26" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
@@ -8125,25 +8150,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="F27" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>487</v>
-      </c>
       <c r="G27" s="23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -8153,25 +8178,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="F28" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>487</v>
-      </c>
       <c r="G28" s="23" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -8181,25 +8206,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="F29" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>698</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -8209,25 +8234,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="E30" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="F30" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>498</v>
-      </c>
       <c r="G30" s="23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -8237,25 +8262,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="F31" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>512</v>
-      </c>
       <c r="G31" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -8265,25 +8290,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -8293,25 +8318,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>515</v>
-      </c>
       <c r="F33" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -8319,10 +8344,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D34" s="23">
         <v>20</v>
@@ -8337,7 +8362,7 @@
         <v>270</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -8347,25 +8372,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -8375,25 +8400,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F36" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>458</v>
-      </c>
       <c r="G36" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -8403,25 +8428,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="E37" s="26" t="s">
         <v>527</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>528</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>529</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
@@ -8431,25 +8456,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="E38" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="C38" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>532</v>
-      </c>
-      <c r="E38" s="48" t="s">
-        <v>533</v>
-      </c>
       <c r="F38" s="49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
@@ -8459,25 +8484,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
+        <v>835</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>840</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>839</v>
-      </c>
       <c r="F39" s="26" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -8487,25 +8512,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D40" s="26" t="s">
+      <c r="F40" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>565</v>
-      </c>
       <c r="G40" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -8515,25 +8540,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>589</v>
-      </c>
       <c r="H41" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -8543,25 +8568,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="D42" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="E42" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>651</v>
-      </c>
       <c r="F42" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -8571,25 +8596,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="E43" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="G43" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -8599,7 +8624,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C44" s="20">
         <v>0.04</v>
@@ -8617,7 +8642,7 @@
         <v>0.04</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
@@ -8627,25 +8652,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="E45" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="G45" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
@@ -8655,25 +8680,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="E46" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>718</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>719</v>
-      </c>
       <c r="G46" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
@@ -8683,25 +8708,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="E47" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="G47" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -8711,25 +8736,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="D48" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>831</v>
-      </c>
       <c r="G48" s="42" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -8739,25 +8764,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="F49" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>728</v>
-      </c>
       <c r="G49" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -8767,25 +8792,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="G50" s="9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
@@ -8795,25 +8820,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="E51" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="G51" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
@@ -8823,25 +8848,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="D52" s="23" t="s">
         <v>763</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>766</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="E52" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="E52" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>767</v>
-      </c>
       <c r="G52" s="26" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I52" s="18"/>
     </row>
@@ -8850,7 +8875,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C53" s="45">
         <v>123</v>
@@ -8868,7 +8893,7 @@
         <v>125</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I53" s="15"/>
     </row>
@@ -8877,25 +8902,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>865</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>866</v>
+      </c>
+      <c r="E54" s="41" t="s">
         <v>867</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="F54" s="53" t="s">
         <v>868</v>
       </c>
-      <c r="D54" s="41" t="s">
-        <v>869</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>870</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>871</v>
-      </c>
       <c r="G54" s="53" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I54" s="52"/>
     </row>
